--- a/ConvertedEqual/Iowa_Converted.xlsx
+++ b/ConvertedEqual/Iowa_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="285">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -834,6 +834,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ221"/>
+  <dimension ref="A1:AJ233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>1</v>
       </c>
       <c r="AJ7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -3597,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3707,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3817,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3927,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -4037,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -4147,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -4257,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -4367,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -4477,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4587,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4697,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4807,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4917,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -5027,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -5137,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -5247,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -5357,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AJ41">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -5467,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0.4076923076923078</v>
+        <v>0.3583333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5577,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0.4846153846153847</v>
+        <v>0.4416666666666668</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5687,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0.4846153846153847</v>
+        <v>0.4416666666666668</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5797,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5907,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="AJ46">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -6017,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -6127,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AJ48">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -6237,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -6347,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="AJ50">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -6457,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -6567,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -6677,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:36">
@@ -6787,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="AJ54">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6897,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="AJ55">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:36">
@@ -7007,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="AJ56">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:36">
@@ -7117,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:36">
@@ -7227,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="AJ58">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -7337,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="AJ59">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:36">
@@ -7447,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="AJ60">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:36">
@@ -7557,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="AJ61">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:36">
@@ -7667,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="AJ62">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:36">
@@ -7777,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="AJ63">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:36">
@@ -7887,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="AJ64">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:36">
@@ -7997,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="AJ65">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:36">
@@ -8107,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="AJ66">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:36">
@@ -8217,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AJ67">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:36">
@@ -8327,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="AJ68">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:36">
@@ -8437,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AJ69">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:36">
@@ -8547,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="AJ70">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:36">
@@ -8657,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="AJ71">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:36">
@@ -8767,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="AJ72">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:36">
@@ -8877,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="AJ73">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:36">
@@ -8987,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="AJ74">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:36">
@@ -9097,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="AJ75">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:36">
@@ -9207,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="AJ76">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:36">
@@ -9317,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="AJ77">
-        <v>0.7692307692307691</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:36">
@@ -9427,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="AJ78">
-        <v>0.7230769230769231</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:36">
@@ -9537,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="AJ79">
-        <v>0.7230769230769231</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:36">
@@ -9647,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="AJ80">
-        <v>0.7230769230769231</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:36">
@@ -9757,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="AJ81">
-        <v>0.7230769230769231</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:36">
@@ -9867,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="AJ82">
-        <v>0.7230769230769231</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:36">
@@ -9977,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="AJ83">
-        <v>0.7230769230769231</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:36">
@@ -10087,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="AJ84">
-        <v>0.7230769230769231</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:36">
@@ -10197,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="AJ85">
-        <v>0.5230769230769232</v>
+        <v>0.4833333333333334</v>
       </c>
     </row>
     <row r="86" spans="1:36">
@@ -10307,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="AJ86">
-        <v>0.5230769230769232</v>
+        <v>0.4833333333333334</v>
       </c>
     </row>
     <row r="87" spans="1:36">
@@ -10417,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="AJ87">
-        <v>0.5230769230769232</v>
+        <v>0.4833333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:36">
@@ -10527,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AJ88">
-        <v>0.5230769230769232</v>
+        <v>0.4833333333333334</v>
       </c>
     </row>
     <row r="89" spans="1:36">
@@ -10637,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="AJ89">
-        <v>0.5230769230769232</v>
+        <v>0.4833333333333334</v>
       </c>
     </row>
     <row r="90" spans="1:36">
@@ -10747,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="AJ90">
-        <v>0.5230769230769232</v>
+        <v>0.4833333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:36">
@@ -10857,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="AJ91">
-        <v>0.5230769230769232</v>
+        <v>0.4833333333333334</v>
       </c>
     </row>
     <row r="92" spans="1:36">
@@ -10967,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="AJ92">
-        <v>0.4153846153846155</v>
+        <v>0.3666666666666668</v>
       </c>
     </row>
     <row r="93" spans="1:36">
@@ -11077,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="AJ93">
-        <v>0.4153846153846155</v>
+        <v>0.3666666666666668</v>
       </c>
     </row>
     <row r="94" spans="1:36">
@@ -11187,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="AJ94">
-        <v>0.4153846153846155</v>
+        <v>0.3666666666666668</v>
       </c>
     </row>
     <row r="95" spans="1:36">
@@ -11297,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="AJ95">
-        <v>0.4153846153846155</v>
+        <v>0.3666666666666668</v>
       </c>
     </row>
     <row r="96" spans="1:36">
@@ -11407,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="AJ96">
-        <v>0.4153846153846155</v>
+        <v>0.3666666666666668</v>
       </c>
     </row>
     <row r="97" spans="1:36">
@@ -11517,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="AJ97">
-        <v>0.4153846153846155</v>
+        <v>0.3666666666666668</v>
       </c>
     </row>
     <row r="98" spans="1:36">
@@ -11627,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="AJ98">
-        <v>0.376923076923077</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:36">
@@ -11737,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="AJ99">
-        <v>0.376923076923077</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:36">
@@ -11847,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="AJ100">
-        <v>0.376923076923077</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:36">
@@ -11957,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AJ101">
-        <v>0.376923076923077</v>
+        <v>0.3250000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:36">
@@ -12067,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="AJ102">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:36">
@@ -12177,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="AJ103">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:36">
@@ -12287,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="AJ104">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:36">
@@ -12397,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="AJ105">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:36">
@@ -12507,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="AJ106">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:36">
@@ -12617,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="AJ107">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:36">
@@ -12727,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="AJ108">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:36">
@@ -12837,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="AJ109">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:36">
@@ -12947,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="AJ110">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:36">
@@ -13057,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="AJ111">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:36">
@@ -13167,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="AJ112">
-        <v>0.2461538461538462</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:36">
@@ -13277,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="AJ113">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:36">
@@ -13387,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="AJ114">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:36">
@@ -13497,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="AJ115">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:36">
@@ -13607,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="AJ116">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:36">
@@ -13717,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="AJ117">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:36">
@@ -13827,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="AJ118">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:36">
@@ -13937,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="AJ119">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:36">
@@ -14047,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="AJ120">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:36">
@@ -14157,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="AJ121">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:36">
@@ -14267,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="AJ122">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:36">
@@ -14377,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="AJ123">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:36">
@@ -14487,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="AJ124">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:36">
@@ -14597,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="AJ125">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:36">
@@ -14707,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="AJ126">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:36">
@@ -14817,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="AJ127">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:36">
@@ -14927,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="AJ128">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:36">
@@ -15037,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="AJ129">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:36">
@@ -15147,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="AJ130">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:36">
@@ -15257,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="AJ131">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:36">
@@ -15367,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="AJ132">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:36">
@@ -15477,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="AJ133">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:36">
@@ -15587,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="AJ134">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:36">
@@ -15697,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="AJ135">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:36">
@@ -15807,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="AJ136">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:36">
@@ -15917,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="AJ137">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:36">
@@ -16027,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="AJ138">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:36">
@@ -16137,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="AJ139">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:36">
@@ -16247,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="AJ140">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:36">
@@ -16357,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="AJ141">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:36">
@@ -16467,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="AJ142">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:36">
@@ -16577,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="AJ143">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:36">
@@ -16687,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="AJ144">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:36">
@@ -16797,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="AJ145">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:36">
@@ -16907,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="AJ146">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:36">
@@ -17017,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="AJ147">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:36">
@@ -17127,7 +17163,7 @@
         <v>0</v>
       </c>
       <c r="AJ148">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:36">
@@ -17237,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="AJ149">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:36">
@@ -17347,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="AJ150">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:36">
@@ -17457,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="AJ151">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:36">
@@ -17567,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="AJ152">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:36">
@@ -17677,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="AJ153">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:36">
@@ -17787,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="AJ154">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:36">
@@ -17897,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AJ155">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:36">
@@ -18007,7 +18043,7 @@
         <v>0</v>
       </c>
       <c r="AJ156">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:36">
@@ -18117,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="AJ157">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:36">
@@ -18227,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="AJ158">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:36">
@@ -18337,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="AJ159">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:36">
@@ -18447,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="AJ160">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:36">
@@ -18557,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="AJ161">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:36">
@@ -18667,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="AJ162">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:36">
@@ -18777,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="AJ163">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:36">
@@ -18887,7 +18923,7 @@
         <v>0</v>
       </c>
       <c r="AJ164">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:36">
@@ -18997,7 +19033,7 @@
         <v>0</v>
       </c>
       <c r="AJ165">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:36">
@@ -19107,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="AJ166">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:36">
@@ -19217,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="AJ167">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:36">
@@ -19327,7 +19363,7 @@
         <v>0</v>
       </c>
       <c r="AJ168">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:36">
@@ -19437,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="AJ169">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:36">
@@ -19547,7 +19583,7 @@
         <v>0</v>
       </c>
       <c r="AJ170">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:36">
@@ -19657,7 +19693,7 @@
         <v>0</v>
       </c>
       <c r="AJ171">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:36">
@@ -19767,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="AJ172">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:36">
@@ -19877,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="AJ173">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:36">
@@ -19987,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="AJ174">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:36">
@@ -20097,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="AJ175">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:36">
@@ -20207,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="AJ176">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:36">
@@ -20317,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="AJ177">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:36">
@@ -20427,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="AJ178">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:36">
@@ -20537,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="AJ179">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:36">
@@ -20647,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="AJ180">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:36">
@@ -20757,7 +20793,7 @@
         <v>0</v>
       </c>
       <c r="AJ181">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:36">
@@ -20867,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="AJ182">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:36">
@@ -20977,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="AJ183">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:36">
@@ -21087,7 +21123,7 @@
         <v>0</v>
       </c>
       <c r="AJ184">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:36">
@@ -21197,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="AJ185">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:36">
@@ -21307,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="AJ186">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:36">
@@ -21417,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="AJ187">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:36">
@@ -21527,7 +21563,7 @@
         <v>0</v>
       </c>
       <c r="AJ188">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:36">
@@ -21637,7 +21673,7 @@
         <v>0</v>
       </c>
       <c r="AJ189">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:36">
@@ -21747,7 +21783,7 @@
         <v>0</v>
       </c>
       <c r="AJ190">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:36">
@@ -21857,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="AJ191">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:36">
@@ -21967,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="AJ192">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:36">
@@ -22077,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="AJ193">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:36">
@@ -22187,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="AJ194">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:36">
@@ -22297,7 +22333,7 @@
         <v>0</v>
       </c>
       <c r="AJ195">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:36">
@@ -22407,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="AJ196">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:36">
@@ -22517,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="AJ197">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:36">
@@ -22627,7 +22663,7 @@
         <v>0</v>
       </c>
       <c r="AJ198">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:36">
@@ -22737,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="AJ199">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:36">
@@ -22847,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="AJ200">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:36">
@@ -22957,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="AJ201">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:36">
@@ -23067,7 +23103,7 @@
         <v>0</v>
       </c>
       <c r="AJ202">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:36">
@@ -23177,7 +23213,7 @@
         <v>0</v>
       </c>
       <c r="AJ203">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:36">
@@ -23287,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="AJ204">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:36">
@@ -23397,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="AJ205">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:36">
@@ -23507,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="AJ206">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:36">
@@ -23617,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="AJ207">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:36">
@@ -23727,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="AJ208">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:36">
@@ -23837,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="AJ209">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:36">
@@ -23947,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="AJ210">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:36">
@@ -24057,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="AJ211">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:36">
@@ -24167,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="AJ212">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:36">
@@ -24277,7 +24313,7 @@
         <v>0</v>
       </c>
       <c r="AJ213">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:36">
@@ -24387,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="AJ214">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:36">
@@ -24497,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="AJ215">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:36">
@@ -24607,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="AJ216">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:36">
@@ -24717,7 +24753,7 @@
         <v>0</v>
       </c>
       <c r="AJ217">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:36">
@@ -24827,7 +24863,7 @@
         <v>0</v>
       </c>
       <c r="AJ218">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:36">
@@ -24937,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="AJ219">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:36">
@@ -25047,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="AJ220">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:36">
@@ -25157,7 +25193,1327 @@
         <v>0</v>
       </c>
       <c r="AJ221">
-        <v>0.1538461538461539</v>
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36">
+      <c r="A222" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36">
+      <c r="A223" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36">
+      <c r="A224" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:36">
+      <c r="A225" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36">
+      <c r="A226" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36">
+      <c r="A227" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:36">
+      <c r="A228" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36">
+      <c r="A229" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>1</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36">
+      <c r="A230" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36">
+      <c r="A231" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36">
+      <c r="A232" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>1</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36">
+      <c r="A233" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>1</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0.08333333333333333</v>
       </c>
     </row>
   </sheetData>
